--- a/Process Results/Unified_IBNP_MS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_MS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9957171004418933</v>
+        <v>0.4164971756374306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9314468869052758</v>
+        <v>0.4136919809383718</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9957171004418933</v>
+        <v>0.8847861235482982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9314468869052758</v>
+        <v>0.8788269058422481</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.948732139641226</v>
+        <v>0.9006023997007467</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9623655365174466</v>
+        <v>0.9134634188653116</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9623655365174466</v>
+        <v>0.9134634188653116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1</v>
+        <v>0.9394975240303721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9561618817352135</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,20 +4152,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4190,20 +4190,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4228,20 +4228,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>1.060992611180817</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.056504308148936</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6127,10 +6127,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.81598647669645</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6343,7 +6343,7 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v>1.008833314746664</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6490,7 +6490,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>2.124350836699366</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.03238394951859185</v>
+        <v>0.03634619474739606</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.9314468869052758</v>
+        <v>0.4136919809383718</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.9957171004418933</v>
+        <v>0.4164971756374306</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02963472417387155</v>
+        <v>0.03463336930332724</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1917686450126037</v>
+        <v>0.2297386784788233</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.7094633422158121</v>
+        <v>0.2972807605814569</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.9599573315828341</v>
+        <v>0.3453732991454976</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>16.72107383726022</v>
+        <v>14.7974144486692</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>3.762193178195729</v>
+        <v>2.902468574890201</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v/>
+        <v>2.124350836699366</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v/>
+        <v>2.124350836699366</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>15.57225687110472</v>
+        <v>12.88267566422365</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>3.762193178195729</v>
+        <v>2.943272007447547</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v/>
+        <v>2.124350836699366</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v/>
+        <v>2.124350836699366</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>3.762193178195729</v>
+        <v>2.902468574890201</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5414944110424819</v>
+        <v>0.5378297073092632</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.9314468869052758</v>
+        <v>0.8788269058422481</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.9957171004418933</v>
+        <v>0.8847861235482982</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.4614795371398644</v>
+        <v>0.4461704638940443</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.7214706880582562</v>
+        <v>0.6761834213947129</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.7094633422158121</v>
+        <v>0.6315286324758417</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.9599573315828341</v>
+        <v>0.7336940570133581</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.484706119631392</v>
+        <v>1.484935060091946</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.050871998320435</v>
+        <v>1.05499941367782</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.018557421769244</v>
+        <v>1.02477790986341</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.004301321686859</v>
+        <v>1.012488442656041</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.570452628808602</v>
+        <v>1.544924478169423</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.147759795344037</v>
+        <v>1.136182588627589</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.219022409399106</v>
+        <v>1.183990893623699</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.04171296692025</v>
+        <v>1.030753082862388</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.050871998320435</v>
+        <v>1.05499941367782</v>
       </c>
     </row>
     <row r="4">
@@ -6838,44 +6838,44 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.8039600658209691</v>
+        <v>0.7986421887425144</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.948732139641226</v>
+        <v>0.9006023997007467</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.7247317522426769</v>
+        <v>0.6892996711061157</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.8280750492724659</v>
+        <v>0.768267830107305</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.8648517128082615</v>
+        <v>0.7477241499140241</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>1</v>
+        <v>0.7562574111443313</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.060660126137771</v>
+        <v>1.060579487588303</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.03830176082969</v>
+        <v>1.038140946356633</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.014370122299616</v>
+        <v>1.014280462908869</v>
       </c>
       <c r="Q4" s="22" t="n">
         <v>1</v>
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.03830176082969</v>
+        <v>1.038140946356633</v>
       </c>
     </row>
     <row r="5">
@@ -6902,31 +6902,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8527283848234001</v>
+        <v>0.8470235233029366</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9623655365174466</v>
+        <v>0.9134634188653116</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8358608545518602</v>
+        <v>0.794995679919026</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9398998157883582</v>
+        <v>0.8720161205538064</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9774682748011012</v>
+        <v>0.8450889603610201</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>1</v>
+        <v>0.7562574111443313</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8616654962551068</v>
+        <v>0.8559008443206989</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9623655365174466</v>
+        <v>0.9134634188653116</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>1</v>
+        <v>0.8958357243150915</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8410092968159231</v>
+        <v>0.7998924152260489</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9398998157883582</v>
+        <v>0.8720161205538064</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9774682748011012</v>
+        <v>0.8450889603610201</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>1</v>
+        <v>0.7562574111443313</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.008415302563345</v>
+        <v>1.011013557987463</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.024140185093866</v>
+        <v>1.033827796190323</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.019836119096346</v>
+        <v>1.046743484181273</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1</v>
+        <v>1.04873862308702</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.017767734428167</v>
+        <v>1.060714391096401</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.023683853873438</v>
+        <v>1.091682726931476</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.012463724607225</v>
+        <v>1.1484614707233</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1</v>
+        <v>1.27199549223215</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.024140185093866</v>
+        <v>1.033827796190323</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8689166721144886</v>
+        <v>0.8653273579011435</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9561618817352135</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>1</v>
+        <v>0.9394975240303721</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.855952126653368</v>
+        <v>0.8484573961591282</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9621602656811611</v>
+        <v>0.9519649364143858</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9896511701905215</v>
+        <v>0.9705521103082417</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>1</v>
+        <v>0.9619560179427451</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.135216212595566</v>
+        <v>1.136833568896406</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.029204488230661</v>
+        <v>1.035482599189993</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1</v>
+        <v>1.019271447133835</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.040759263105757</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.155142350783494</v>
+        <v>1.158281479013991</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.027523851246106</v>
+        <v>1.032232543591851</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1</v>
+        <v>1.009417384691489</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.018834769382979</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.029204488230661</v>
+        <v>1.035482599189993</v>
       </c>
     </row>
     <row r="8">
@@ -7094,31 +7094,31 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9864082935789528</v>
+        <v>0.983733188546455</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9887465517405026</v>
+        <v>0.9827524877035546</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9886426217086832</v>
+        <v>0.9826491877252759</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9896511701905215</v>
+        <v>0.9796921728941512</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -7158,31 +7158,31 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9864082935789528</v>
+        <v>0.983733188546455</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9887465517405026</v>
+        <v>0.9827524877035546</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9886426217086832</v>
+        <v>0.9826491877252759</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9896511701905215</v>
+        <v>0.9796921728941512</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
@@ -7222,31 +7222,31 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9864082935789528</v>
+        <v>0.983733188546455</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9814551339140257</v>
+        <v>0.9745885048904617</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9887465517405026</v>
+        <v>0.9827524877035546</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9886426217086832</v>
+        <v>0.9826491877252759</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9896511701905215</v>
+        <v>0.9796921728941512</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7286,31 +7286,31 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9891940485906027</v>
+        <v>0.9865113886872673</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9944009361311095</v>
+        <v>0.9883725936007829</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.99381176339347</v>
+        <v>0.9877869925965789</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>1</v>
+        <v>0.9899368609906729</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
@@ -7350,31 +7350,31 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9910796706988027</v>
+        <v>0.9883918970538007</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9959025827540168</v>
+        <v>0.9898651368129093</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9955626464575958</v>
+        <v>0.9895272613074217</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>1</v>
+        <v>0.9899368609906729</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -7414,31 +7414,31 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>1</v>
+        <v>0.9899368609906729</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7478,31 +7478,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>1</v>
+        <v>0.9899368609906729</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7542,62 +7542,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>1</v>
+        <v>0.9930036241227044</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1</v>
+        <v>0.9777907507995329</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>1</v>
+        <v>0.9939377143450999</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>1</v>
+        <v>0.9899368609906729</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>1</v>
+        <v>0.9800742376972651</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1</v>
+        <v>1.002719340023946</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1</v>
+        <v>1.002719340023946</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1</v>
+        <v>1.007045670033155</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.022713703501804</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1</v>
+        <v>1.006099261118082</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1</v>
+        <v>1.006099261118082</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1</v>
+        <v>1.010165435196803</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.020330870393606</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1</v>
+        <v>1.002719340023946</v>
       </c>
     </row>
     <row r="16">
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>573.84</v>
+        <v>608.84</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9670,10 +9670,10 @@
         <v>573.84</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>573.84</v>
+        <v>608.84</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>573.84</v>
+        <v>608.84</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>451.47</v>
+        <v>476.98</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10697,7 +10697,7 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>427.31</v>
+        <v>427.3099999999999</v>
       </c>
       <c r="U24" s="22" t="n">
         <v>451.47</v>
@@ -10712,10 +10712,10 @@
         <v>451.47</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>451.47</v>
+        <v>476.98</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>451.47</v>
+        <v>476.98</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>41.41</v>
+        <v>75.19999999999999</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10847,10 +10847,10 @@
         <v>41.41</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>41.41</v>
+        <v>75.19999999999999</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>41.41</v>
+        <v>75.19999999999999</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>2152.08</v>
+        <v>2171.09</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11252,10 +11252,10 @@
         <v>2152.08</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2152.08</v>
+        <v>2171.09</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>2152.08</v>
+        <v>2171.09</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v/>
+        <v>34.66</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11387,10 +11387,10 @@
         <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v/>
+        <v>34.66</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v/>
+        <v>34.66</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v/>
+        <v>73.63</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>34.66</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v/>
+        <v>73.63</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v/>
+        <v>2517.18</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>80</v>
